--- a/sprints/sprint2/Sprint 2 Backlog & Burndown.xlsx
+++ b/sprints/sprint2/Sprint 2 Backlog & Burndown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janera Smith\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsmit189\Desktop\UWG-SE2-Spring22-Team2\sprints\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6BF667-CFD2-4D2F-844A-EC43EDCE533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52FA05D-09F4-4FB8-ACA3-778AFBE89C50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/sprints/sprint2/Sprint 2 Backlog & Burndown.xlsx
+++ b/sprints/sprint2/Sprint 2 Backlog & Burndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsmit189\Desktop\UWG-SE2-Spring22-Team2\sprints\sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odiallo1\Desktop\Sprint2\UWG-SE2-Spring22-Team2\sprints\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52FA05D-09F4-4FB8-ACA3-778AFBE89C50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2CDF8C3-86E4-46BA-B047-1CA9970A26B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Related User Story</t>
   </si>
@@ -66,36 +57,24 @@
     <t>The user would want to delete images</t>
   </si>
   <si>
-    <t>The user would want to view image details</t>
-  </si>
-  <si>
     <t>The user would want to cancel and return to the homepage</t>
   </si>
   <si>
     <t>The user would want to log-in</t>
   </si>
   <si>
-    <t>The user would want to upload images</t>
-  </si>
-  <si>
     <t>Task Assigned</t>
   </si>
   <si>
     <t>Create delete functionality to handle delete for code behind</t>
   </si>
   <si>
-    <t>Create functionality to view image details for code behind</t>
-  </si>
-  <si>
     <t>Fix Cancel functionality to be connected back to the homepage</t>
   </si>
   <si>
     <t>Create server side for authentication log in</t>
   </si>
   <si>
-    <t>Create server side for uploading images</t>
-  </si>
-  <si>
     <t>Janera</t>
   </si>
   <si>
@@ -105,7 +84,10 @@
     <t>Anton</t>
   </si>
   <si>
-    <t>Janera/Oumar</t>
+    <t>create tests to cover delete functionality</t>
+  </si>
+  <si>
+    <t>Anton/Janera</t>
   </si>
 </sst>
 </file>
@@ -303,24 +285,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$26:$H$26</c:f>
+              <c:f>Sheet1!$D$25:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,15 +1045,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1362,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
@@ -1419,86 +1401,110 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1675,39 +1681,29 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3">
-        <f>SUM(D3:D25)</f>
-        <v>43</v>
-      </c>
-      <c r="E26" s="3">
-        <f>SUM(E3:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <f>SUM(F3:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <f>SUM(G3:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <f>SUM(H3:H25)</f>
-        <v>0</v>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3">
+        <f>SUM(D3:D24)</f>
+        <v>28</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SUM(E3:E24)</f>
+        <v>25</v>
+      </c>
+      <c r="F25" s="3">
+        <f>SUM(F3:F24)</f>
+        <v>19</v>
+      </c>
+      <c r="G25" s="3">
+        <f>SUM(G3:G24)</f>
+        <v>13</v>
+      </c>
+      <c r="H25" s="3">
+        <f>SUM(H3:H24)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
